--- a/questions.xlsx
+++ b/questions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Md Rasel Sumon\Desktop\EXAM_SYSTEM\exam_system_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B6543E6-1B2D-4BE6-9DC4-ADB9F8603F79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68C17CFC-1C35-4EC5-906C-269C55CD7B18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,29 +45,29 @@
     <t>Option_D</t>
   </si>
   <si>
-    <t>Which is the largest planet in our solar system?</t>
-  </si>
-  <si>
-    <t>Earth</t>
-  </si>
-  <si>
-    <t>Jupiter</t>
-  </si>
-  <si>
-    <t>Mars</t>
-  </si>
-  <si>
-    <t>Saturn</t>
-  </si>
-  <si>
-    <t>b</t>
+    <t>a fool</t>
+  </si>
+  <si>
+    <t>a  criminal</t>
+  </si>
+  <si>
+    <t>a conman</t>
+  </si>
+  <si>
+    <t>a devil</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>Well, he's not that at all. He is a birdbrain. Here birdbrain means</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -77,7 +77,14 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -104,9 +111,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -390,16 +398,20 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="39.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.21875" customWidth="1"/>
+    <col min="1" max="1" width="68.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -419,24 +431,24 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="F2" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/questions.xlsx
+++ b/questions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Md Rasel Sumon\Desktop\EXAM_SYSTEM\exam_system_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68C17CFC-1C35-4EC5-906C-269C55CD7B18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF5A138F-3A66-46F0-9EAF-B07CDAA0EAF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,22 +45,22 @@
     <t>Option_D</t>
   </si>
   <si>
-    <t>a fool</t>
-  </si>
-  <si>
-    <t>a  criminal</t>
-  </si>
-  <si>
-    <t>a conman</t>
-  </si>
-  <si>
-    <t>a devil</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>Well, he's not that at all. He is a birdbrain. Here birdbrain means</t>
+    <t>b</t>
+  </si>
+  <si>
+    <t>Bury the hatchet means</t>
+  </si>
+  <si>
+    <t>make a noise</t>
+  </si>
+  <si>
+    <t>make a peace</t>
+  </si>
+  <si>
+    <t xml:space="preserve">make a hole </t>
+  </si>
+  <si>
+    <t>make  a dead body</t>
   </si>
 </sst>
 </file>
@@ -398,16 +398,16 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="68.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.44140625" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
@@ -433,22 +433,22 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
